--- a/Calibration.xlsx
+++ b/Calibration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="840" windowWidth="50480" windowHeight="28040"/>
+    <workbookView xWindow="3640" yWindow="2220" windowWidth="50480" windowHeight="28040"/>
   </bookViews>
   <sheets>
     <sheet name="Population distribution (midyr)" sheetId="1" r:id="rId1"/>
